--- a/inputFiles/excel1.xlsx
+++ b/inputFiles/excel1.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>sysadmin</t>
-  </si>
-  <si>
-    <t>Remedy@123</t>
-  </si>
-  <si>
-    <t>newuser</t>
-  </si>
-  <si>
-    <t>Pass@123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SR NO.</t>
   </si>
@@ -45,6 +33,12 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
@@ -376,7 +370,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,13 +381,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -401,27 +395,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" display="Remedy@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
